--- a/output/Housing/BuildSize_ACS_cousubreg.xlsx
+++ b/output/Housing/BuildSize_ACS_cousubreg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="64">
   <si>
     <t>GEO_ID</t>
   </si>
@@ -49,6 +49,12 @@
     <t>U5_10M</t>
   </si>
   <si>
+    <t>UOth_10E</t>
+  </si>
+  <si>
+    <t>UOth_10M</t>
+  </si>
+  <si>
     <t>UT_19E</t>
   </si>
   <si>
@@ -77,6 +83,12 @@
   </si>
   <si>
     <t>U5_19M</t>
+  </si>
+  <si>
+    <t>UOth_19E</t>
+  </si>
+  <si>
+    <t>UOth_19M</t>
   </si>
   <si>
     <t>sub</t>
@@ -551,13 +563,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V39"/>
+  <dimension ref="A1:Z39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -624,10 +636,22 @@
       <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:22">
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B2">
         <v>358132</v>
@@ -660,42 +684,54 @@
         <v>1680.829259621572</v>
       </c>
       <c r="L2">
+        <v>1339</v>
+      </c>
+      <c r="M2">
+        <v>222.103579439864</v>
+      </c>
+      <c r="N2">
         <v>372565</v>
       </c>
-      <c r="M2">
+      <c r="O2">
         <v>336</v>
       </c>
-      <c r="N2">
+      <c r="P2">
         <v>30986</v>
       </c>
-      <c r="O2">
+      <c r="Q2">
         <v>1215</v>
       </c>
-      <c r="P2">
+      <c r="R2">
         <v>30022</v>
       </c>
-      <c r="Q2">
+      <c r="S2">
         <v>1324</v>
       </c>
-      <c r="R2">
+      <c r="T2">
         <v>238811</v>
       </c>
-      <c r="S2">
+      <c r="U2">
         <v>1768.590399159738</v>
       </c>
-      <c r="T2">
+      <c r="V2">
         <v>71252</v>
       </c>
-      <c r="U2">
+      <c r="W2">
         <v>1769.535532279587</v>
       </c>
-      <c r="V2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="X2">
+        <v>1494</v>
+      </c>
+      <c r="Y2">
+        <v>248.2438317461282</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B3">
         <v>86607</v>
@@ -728,42 +764,54 @@
         <v>614.5022375874639</v>
       </c>
       <c r="L3">
+        <v>676</v>
+      </c>
+      <c r="M3">
+        <v>188.8544413033488</v>
+      </c>
+      <c r="N3">
         <v>88252</v>
       </c>
-      <c r="M3">
+      <c r="O3">
         <v>242</v>
       </c>
-      <c r="N3">
+      <c r="P3">
         <v>6506</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <v>571</v>
       </c>
-      <c r="P3">
+      <c r="R3">
         <v>5368</v>
       </c>
-      <c r="Q3">
+      <c r="S3">
         <v>454</v>
       </c>
-      <c r="R3">
+      <c r="T3">
         <v>68015</v>
       </c>
-      <c r="S3">
+      <c r="U3">
         <v>794.1190087134296</v>
       </c>
-      <c r="T3">
+      <c r="V3">
         <v>8055</v>
       </c>
-      <c r="U3">
+      <c r="W3">
         <v>602.2980989510095</v>
       </c>
-      <c r="V3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="X3">
+        <v>308</v>
+      </c>
+      <c r="Y3">
+        <v>123.6931687685298</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B4">
         <v>359509</v>
@@ -796,42 +844,54 @@
         <v>1571.610002513346</v>
       </c>
       <c r="L4">
+        <v>2168</v>
+      </c>
+      <c r="M4">
+        <v>310.4657791126101</v>
+      </c>
+      <c r="N4">
         <v>367053</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <v>396</v>
       </c>
-      <c r="N4">
+      <c r="P4">
         <v>35723</v>
       </c>
-      <c r="O4">
+      <c r="Q4">
         <v>1293</v>
       </c>
-      <c r="P4">
+      <c r="R4">
         <v>38943</v>
       </c>
-      <c r="Q4">
+      <c r="S4">
         <v>1259</v>
       </c>
-      <c r="R4">
+      <c r="T4">
         <v>216222</v>
       </c>
-      <c r="S4">
+      <c r="U4">
         <v>2054.381902178852</v>
       </c>
-      <c r="T4">
+      <c r="V4">
         <v>74120</v>
       </c>
-      <c r="U4">
+      <c r="W4">
         <v>1783.089453729117</v>
       </c>
-      <c r="V4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="X4">
+        <v>2045</v>
+      </c>
+      <c r="Y4">
+        <v>243.7580767892625</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B5">
         <v>351122</v>
@@ -864,42 +924,54 @@
         <v>1722.012195078769</v>
       </c>
       <c r="L5">
+        <v>1084</v>
+      </c>
+      <c r="M5">
+        <v>162.689889052762</v>
+      </c>
+      <c r="N5">
         <v>357828</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <v>272</v>
       </c>
-      <c r="N5">
+      <c r="P5">
         <v>49889</v>
       </c>
-      <c r="O5">
+      <c r="Q5">
         <v>1452</v>
       </c>
-      <c r="P5">
+      <c r="R5">
         <v>21625</v>
       </c>
-      <c r="Q5">
+      <c r="S5">
         <v>1201</v>
       </c>
-      <c r="R5">
+      <c r="T5">
         <v>209391</v>
       </c>
-      <c r="S5">
+      <c r="U5">
         <v>1968.357945090273</v>
       </c>
-      <c r="T5">
+      <c r="V5">
         <v>75668</v>
       </c>
-      <c r="U5">
+      <c r="W5">
         <v>1693.046071434561</v>
       </c>
-      <c r="V5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="X5">
+        <v>1255</v>
+      </c>
+      <c r="Y5">
+        <v>223.9464221638738</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B6">
         <v>311738</v>
@@ -932,42 +1004,54 @@
         <v>1633.302482701842</v>
       </c>
       <c r="L6">
+        <v>587</v>
+      </c>
+      <c r="M6">
+        <v>187.040102651811</v>
+      </c>
+      <c r="N6">
         <v>317314</v>
       </c>
-      <c r="M6">
+      <c r="O6">
         <v>427</v>
       </c>
-      <c r="N6">
+      <c r="P6">
         <v>48335</v>
       </c>
-      <c r="O6">
+      <c r="Q6">
         <v>1385</v>
       </c>
-      <c r="P6">
+      <c r="R6">
         <v>53745</v>
       </c>
-      <c r="Q6">
+      <c r="S6">
         <v>1348</v>
       </c>
-      <c r="R6">
+      <c r="T6">
         <v>122046</v>
       </c>
-      <c r="S6">
+      <c r="U6">
         <v>1643.479540487195</v>
       </c>
-      <c r="T6">
+      <c r="V6">
         <v>92915</v>
       </c>
-      <c r="U6">
+      <c r="W6">
         <v>1860.307770235882</v>
       </c>
-      <c r="V6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="X6">
+        <v>273</v>
+      </c>
+      <c r="Y6">
+        <v>115.8317745698476</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B7">
         <v>264844</v>
@@ -1000,42 +1084,54 @@
         <v>1939.13176447605</v>
       </c>
       <c r="L7">
+        <v>559</v>
+      </c>
+      <c r="M7">
+        <v>176.2384748004816</v>
+      </c>
+      <c r="N7">
         <v>282039</v>
       </c>
-      <c r="M7">
+      <c r="O7">
         <v>283</v>
       </c>
-      <c r="N7">
+      <c r="P7">
         <v>62677</v>
       </c>
-      <c r="O7">
+      <c r="Q7">
         <v>1628</v>
       </c>
-      <c r="P7">
+      <c r="R7">
         <v>38488</v>
       </c>
-      <c r="Q7">
+      <c r="S7">
         <v>1275</v>
       </c>
-      <c r="R7">
+      <c r="T7">
         <v>41885</v>
       </c>
-      <c r="S7">
+      <c r="U7">
         <v>1154.200155952164</v>
       </c>
-      <c r="T7">
+      <c r="V7">
         <v>138512</v>
       </c>
-      <c r="U7">
+      <c r="W7">
         <v>2188.119055261847</v>
       </c>
-      <c r="V7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="X7">
+        <v>477</v>
+      </c>
+      <c r="Y7">
+        <v>169.5228598154243</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B8">
         <v>49159</v>
@@ -1068,42 +1164,54 @@
         <v>354.7576637649989</v>
       </c>
       <c r="L8">
+        <v>144</v>
+      </c>
+      <c r="M8">
+        <v>144.5856147754679</v>
+      </c>
+      <c r="N8">
         <v>50249</v>
       </c>
-      <c r="M8">
+      <c r="O8">
         <v>219</v>
       </c>
-      <c r="N8">
+      <c r="P8">
         <v>1983</v>
       </c>
-      <c r="O8">
+      <c r="Q8">
         <v>342</v>
       </c>
-      <c r="P8">
+      <c r="R8">
         <v>1807</v>
       </c>
-      <c r="Q8">
+      <c r="S8">
         <v>366</v>
       </c>
-      <c r="R8">
+      <c r="T8">
         <v>41895</v>
       </c>
-      <c r="S8">
+      <c r="U8">
         <v>661.7582640209339</v>
       </c>
-      <c r="T8">
+      <c r="V8">
         <v>4306</v>
       </c>
-      <c r="U8">
+      <c r="W8">
         <v>414.1907772995435</v>
       </c>
-      <c r="V8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22">
+      <c r="X8">
+        <v>258</v>
+      </c>
+      <c r="Y8">
+        <v>121.4989711890599</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B9">
         <v>142377</v>
@@ -1136,42 +1244,54 @@
         <v>1173.010656388082</v>
       </c>
       <c r="L9">
+        <v>440</v>
+      </c>
+      <c r="M9">
+        <v>144.9034161087999</v>
+      </c>
+      <c r="N9">
         <v>144855</v>
       </c>
-      <c r="M9">
+      <c r="O9">
         <v>328</v>
       </c>
-      <c r="N9">
+      <c r="P9">
         <v>6758</v>
       </c>
-      <c r="O9">
+      <c r="Q9">
         <v>591</v>
       </c>
-      <c r="P9">
+      <c r="R9">
         <v>5292</v>
       </c>
-      <c r="Q9">
+      <c r="S9">
         <v>499</v>
       </c>
-      <c r="R9">
+      <c r="T9">
         <v>101843</v>
       </c>
-      <c r="S9">
+      <c r="U9">
         <v>1397.764643994117</v>
       </c>
-      <c r="T9">
+      <c r="V9">
         <v>30517</v>
       </c>
-      <c r="U9">
+      <c r="W9">
         <v>1145.268527464193</v>
       </c>
-      <c r="V9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22">
+      <c r="X9">
+        <v>445</v>
+      </c>
+      <c r="Y9">
+        <v>177.4091316702723</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B10">
         <v>292495</v>
@@ -1204,42 +1324,54 @@
         <v>1451.951789833257</v>
       </c>
       <c r="L10">
+        <v>2428</v>
+      </c>
+      <c r="M10">
+        <v>281.2045518834999</v>
+      </c>
+      <c r="N10">
         <v>301566</v>
       </c>
-      <c r="M10">
+      <c r="O10">
         <v>502</v>
       </c>
-      <c r="N10">
+      <c r="P10">
         <v>21420</v>
       </c>
-      <c r="O10">
+      <c r="Q10">
         <v>1128</v>
       </c>
-      <c r="P10">
+      <c r="R10">
         <v>15436</v>
       </c>
-      <c r="Q10">
+      <c r="S10">
         <v>838</v>
       </c>
-      <c r="R10">
+      <c r="T10">
         <v>192950</v>
       </c>
-      <c r="S10">
+      <c r="U10">
         <v>1869.639804882213</v>
       </c>
-      <c r="T10">
+      <c r="V10">
         <v>69538</v>
       </c>
-      <c r="U10">
+      <c r="W10">
         <v>1751.537895679109</v>
       </c>
-      <c r="V10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22">
+      <c r="X10">
+        <v>2222</v>
+      </c>
+      <c r="Y10">
+        <v>254.3855341799136</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B11">
         <v>256504</v>
@@ -1272,42 +1404,54 @@
         <v>1281.956707537349</v>
       </c>
       <c r="L11">
+        <v>3487</v>
+      </c>
+      <c r="M11">
+        <v>356.9481755101152</v>
+      </c>
+      <c r="N11">
         <v>261579</v>
       </c>
-      <c r="M11">
+      <c r="O11">
         <v>217</v>
       </c>
-      <c r="N11">
+      <c r="P11">
         <v>8474</v>
       </c>
-      <c r="O11">
+      <c r="Q11">
         <v>581</v>
       </c>
-      <c r="P11">
+      <c r="R11">
         <v>8905</v>
       </c>
-      <c r="Q11">
+      <c r="S11">
         <v>657</v>
       </c>
-      <c r="R11">
+      <c r="T11">
         <v>195414</v>
       </c>
-      <c r="S11">
+      <c r="U11">
         <v>1630.897912194384</v>
       </c>
-      <c r="T11">
+      <c r="V11">
         <v>45837</v>
       </c>
-      <c r="U11">
+      <c r="W11">
         <v>1485.101006665877</v>
       </c>
-      <c r="V11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22">
+      <c r="X11">
+        <v>2949</v>
+      </c>
+      <c r="Y11">
+        <v>396.2953444086872</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B12">
         <v>188329</v>
@@ -1340,42 +1484,54 @@
         <v>1156.14575205724</v>
       </c>
       <c r="L12">
+        <v>616</v>
+      </c>
+      <c r="M12">
+        <v>178.0842497246739</v>
+      </c>
+      <c r="N12">
         <v>193339</v>
       </c>
-      <c r="M12">
+      <c r="O12">
         <v>285</v>
       </c>
-      <c r="N12">
+      <c r="P12">
         <v>7784</v>
       </c>
-      <c r="O12">
+      <c r="Q12">
         <v>630</v>
       </c>
-      <c r="P12">
+      <c r="R12">
         <v>6426</v>
       </c>
-      <c r="Q12">
+      <c r="S12">
         <v>598</v>
       </c>
-      <c r="R12">
+      <c r="T12">
         <v>143398</v>
       </c>
-      <c r="S12">
+      <c r="U12">
         <v>1393.347767070375</v>
       </c>
-      <c r="T12">
+      <c r="V12">
         <v>35314</v>
       </c>
-      <c r="U12">
+      <c r="W12">
         <v>1254.920316195415</v>
       </c>
-      <c r="V12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22">
+      <c r="X12">
+        <v>417</v>
+      </c>
+      <c r="Y12">
+        <v>120.2206305090769</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B13">
         <v>275793</v>
@@ -1408,42 +1564,54 @@
         <v>946.8458163819492</v>
       </c>
       <c r="L13">
+        <v>6728</v>
+      </c>
+      <c r="M13">
+        <v>391.807350620174</v>
+      </c>
+      <c r="N13">
         <v>283297</v>
       </c>
-      <c r="M13">
+      <c r="O13">
         <v>319</v>
       </c>
-      <c r="N13">
+      <c r="P13">
         <v>7033</v>
       </c>
-      <c r="O13">
+      <c r="Q13">
         <v>471</v>
       </c>
-      <c r="P13">
+      <c r="R13">
         <v>7246</v>
       </c>
-      <c r="Q13">
+      <c r="S13">
         <v>686</v>
       </c>
-      <c r="R13">
+      <c r="T13">
         <v>240124</v>
       </c>
-      <c r="S13">
+      <c r="U13">
         <v>1522.402377822631</v>
       </c>
-      <c r="T13">
+      <c r="V13">
         <v>22575</v>
       </c>
-      <c r="U13">
+      <c r="W13">
         <v>1076.18446374216</v>
       </c>
-      <c r="V13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22">
+      <c r="X13">
+        <v>6319</v>
+      </c>
+      <c r="Y13">
+        <v>506.888547907723</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B14">
         <v>175223</v>
@@ -1476,42 +1644,54 @@
         <v>1268.417912204018</v>
       </c>
       <c r="L14">
+        <v>708</v>
+      </c>
+      <c r="M14">
+        <v>185.7148351640224</v>
+      </c>
+      <c r="N14">
         <v>177090</v>
       </c>
-      <c r="M14">
+      <c r="O14">
         <v>221</v>
       </c>
-      <c r="N14">
+      <c r="P14">
         <v>39401</v>
       </c>
-      <c r="O14">
+      <c r="Q14">
         <v>1325</v>
       </c>
-      <c r="P14">
+      <c r="R14">
         <v>16669</v>
       </c>
-      <c r="Q14">
+      <c r="S14">
         <v>822</v>
       </c>
-      <c r="R14">
+      <c r="T14">
         <v>83009</v>
       </c>
-      <c r="S14">
+      <c r="U14">
         <v>1322.018532396577</v>
       </c>
-      <c r="T14">
+      <c r="V14">
         <v>37570</v>
       </c>
-      <c r="U14">
+      <c r="W14">
         <v>1196.854210002204</v>
       </c>
-      <c r="V14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22">
+      <c r="X14">
+        <v>441</v>
+      </c>
+      <c r="Y14">
+        <v>118.532695911297</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B15">
         <v>122244</v>
@@ -1544,42 +1724,54 @@
         <v>897.6146166367836</v>
       </c>
       <c r="L15">
+        <v>273</v>
+      </c>
+      <c r="M15">
+        <v>103.7304198391195</v>
+      </c>
+      <c r="N15">
         <v>126717</v>
       </c>
-      <c r="M15">
+      <c r="O15">
         <v>212</v>
       </c>
-      <c r="N15">
+      <c r="P15">
         <v>6169</v>
       </c>
-      <c r="O15">
+      <c r="Q15">
         <v>459</v>
       </c>
-      <c r="P15">
+      <c r="R15">
         <v>5889</v>
       </c>
-      <c r="Q15">
+      <c r="S15">
         <v>534</v>
       </c>
-      <c r="R15">
+      <c r="T15">
         <v>93174</v>
       </c>
-      <c r="S15">
+      <c r="U15">
         <v>1344.899996282252</v>
       </c>
-      <c r="T15">
+      <c r="V15">
         <v>21229</v>
       </c>
-      <c r="U15">
+      <c r="W15">
         <v>1153.695800460416</v>
       </c>
-      <c r="V15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22">
+      <c r="X15">
+        <v>256</v>
+      </c>
+      <c r="Y15">
+        <v>79.76214641043707</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B16">
         <v>61567</v>
@@ -1612,42 +1804,54 @@
         <v>399.4270897172599</v>
       </c>
       <c r="L16">
+        <v>631</v>
+      </c>
+      <c r="M16">
+        <v>151.0761397441701</v>
+      </c>
+      <c r="N16">
         <v>62418</v>
       </c>
-      <c r="M16">
+      <c r="O16">
         <v>173</v>
       </c>
-      <c r="N16">
+      <c r="P16">
         <v>1536</v>
       </c>
-      <c r="O16">
+      <c r="Q16">
         <v>247</v>
       </c>
-      <c r="P16">
+      <c r="R16">
         <v>1426</v>
       </c>
-      <c r="Q16">
+      <c r="S16">
         <v>258</v>
       </c>
-      <c r="R16">
+      <c r="T16">
         <v>53308</v>
       </c>
-      <c r="S16">
+      <c r="U16">
         <v>592.9123038021728</v>
       </c>
-      <c r="T16">
+      <c r="V16">
         <v>5045</v>
       </c>
-      <c r="U16">
+      <c r="W16">
         <v>409.2578649213721</v>
       </c>
-      <c r="V16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22">
+      <c r="X16">
+        <v>1103</v>
+      </c>
+      <c r="Y16">
+        <v>216.9469981354893</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B17">
         <v>198668</v>
@@ -1680,42 +1884,54 @@
         <v>1157.983160499323</v>
       </c>
       <c r="L17">
+        <v>675</v>
+      </c>
+      <c r="M17">
+        <v>222.7666940994546</v>
+      </c>
+      <c r="N17">
         <v>202267</v>
       </c>
-      <c r="M17">
+      <c r="O17">
         <v>279</v>
       </c>
-      <c r="N17">
+      <c r="P17">
         <v>33259</v>
       </c>
-      <c r="O17">
+      <c r="Q17">
         <v>1271</v>
       </c>
-      <c r="P17">
+      <c r="R17">
         <v>15589</v>
       </c>
-      <c r="Q17">
+      <c r="S17">
         <v>803</v>
       </c>
-      <c r="R17">
+      <c r="T17">
         <v>113631</v>
       </c>
-      <c r="S17">
+      <c r="U17">
         <v>1451.709337298621</v>
       </c>
-      <c r="T17">
+      <c r="V17">
         <v>39270</v>
       </c>
-      <c r="U17">
+      <c r="W17">
         <v>1311.828113740516</v>
       </c>
-      <c r="V17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22">
+      <c r="X17">
+        <v>518</v>
+      </c>
+      <c r="Y17">
+        <v>203.7694775966214</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B18">
         <v>44897</v>
@@ -1748,42 +1964,54 @@
         <v>518.1042366165326</v>
       </c>
       <c r="L18">
+        <v>580</v>
+      </c>
+      <c r="M18">
+        <v>176.7993212656655</v>
+      </c>
+      <c r="N18">
         <v>45473</v>
       </c>
-      <c r="M18">
+      <c r="O18">
         <v>169</v>
       </c>
-      <c r="N18">
+      <c r="P18">
         <v>2119</v>
       </c>
-      <c r="O18">
+      <c r="Q18">
         <v>378</v>
       </c>
-      <c r="P18">
+      <c r="R18">
         <v>1544</v>
       </c>
-      <c r="Q18">
+      <c r="S18">
         <v>250</v>
       </c>
-      <c r="R18">
+      <c r="T18">
         <v>35388</v>
       </c>
-      <c r="S18">
+      <c r="U18">
         <v>657.216098402953</v>
       </c>
-      <c r="T18">
+      <c r="V18">
         <v>5816</v>
       </c>
-      <c r="U18">
+      <c r="W18">
         <v>493.7398100214322</v>
       </c>
-      <c r="V18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22">
+      <c r="X18">
+        <v>606</v>
+      </c>
+      <c r="Y18">
+        <v>139.1761473816545</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B19">
         <v>509665</v>
@@ -1816,42 +2044,54 @@
         <v>2494.798789481829</v>
       </c>
       <c r="L19">
+        <v>1108</v>
+      </c>
+      <c r="M19">
+        <v>257.2353008434107</v>
+      </c>
+      <c r="N19">
         <v>529796</v>
       </c>
-      <c r="M19">
+      <c r="O19">
         <v>545</v>
       </c>
-      <c r="N19">
+      <c r="P19">
         <v>46175</v>
       </c>
-      <c r="O19">
+      <c r="Q19">
         <v>1566</v>
       </c>
-      <c r="P19">
+      <c r="R19">
         <v>44592</v>
       </c>
-      <c r="Q19">
+      <c r="S19">
         <v>1532</v>
       </c>
-      <c r="R19">
+      <c r="T19">
         <v>57056</v>
       </c>
-      <c r="S19">
+      <c r="U19">
         <v>1544.694144482978</v>
       </c>
-      <c r="T19">
+      <c r="V19">
         <v>380534</v>
       </c>
-      <c r="U19">
+      <c r="W19">
         <v>2591.401358338766</v>
       </c>
-      <c r="V19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22">
+      <c r="X19">
+        <v>1439</v>
+      </c>
+      <c r="Y19">
+        <v>284.2709974654467</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B20">
         <v>116946</v>
@@ -1884,42 +2124,54 @@
         <v>894.7720380074469</v>
       </c>
       <c r="L20">
+        <v>4828</v>
+      </c>
+      <c r="M20">
+        <v>488.3697369821353</v>
+      </c>
+      <c r="N20">
         <v>120789</v>
       </c>
-      <c r="M20">
+      <c r="O20">
         <v>378</v>
       </c>
-      <c r="N20">
+      <c r="P20">
         <v>7639</v>
       </c>
-      <c r="O20">
+      <c r="Q20">
         <v>634</v>
       </c>
-      <c r="P20">
+      <c r="R20">
         <v>8318</v>
       </c>
-      <c r="Q20">
+      <c r="S20">
         <v>513</v>
       </c>
-      <c r="R20">
+      <c r="T20">
         <v>83817</v>
       </c>
-      <c r="S20">
+      <c r="U20">
         <v>1026.474549124332</v>
       </c>
-      <c r="T20">
+      <c r="V20">
         <v>16835</v>
       </c>
-      <c r="U20">
+      <c r="W20">
         <v>856.6819713289174</v>
       </c>
-      <c r="V20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22">
+      <c r="X20">
+        <v>4180</v>
+      </c>
+      <c r="Y20">
+        <v>371.845397981473</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B21">
         <v>986482</v>
@@ -1952,42 +2204,54 @@
         <v>3460.589256181669</v>
       </c>
       <c r="L21">
+        <v>1358</v>
+      </c>
+      <c r="M21">
+        <v>245.5890877054597</v>
+      </c>
+      <c r="N21">
         <v>1044493</v>
       </c>
-      <c r="M21">
+      <c r="O21">
         <v>817</v>
       </c>
-      <c r="N21">
+      <c r="P21">
         <v>184489</v>
       </c>
-      <c r="O21">
+      <c r="Q21">
         <v>2588</v>
       </c>
-      <c r="P21">
+      <c r="R21">
         <v>168908</v>
       </c>
-      <c r="Q21">
+      <c r="S21">
         <v>2513</v>
       </c>
-      <c r="R21">
+      <c r="T21">
         <v>144529</v>
       </c>
-      <c r="S21">
+      <c r="U21">
         <v>2090.488220488219</v>
       </c>
-      <c r="T21">
+      <c r="V21">
         <v>544784</v>
       </c>
-      <c r="U21">
+      <c r="W21">
         <v>3630.728026167755</v>
       </c>
-      <c r="V21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22">
+      <c r="X21">
+        <v>1783</v>
+      </c>
+      <c r="Y21">
+        <v>298.187860249206</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B22">
         <v>466721</v>
@@ -2020,42 +2284,54 @@
         <v>1345.676409840048</v>
       </c>
       <c r="L22">
+        <v>875</v>
+      </c>
+      <c r="M22">
+        <v>205.4482903311682</v>
+      </c>
+      <c r="N22">
         <v>472572</v>
       </c>
-      <c r="M22">
+      <c r="O22">
         <v>362</v>
       </c>
-      <c r="N22">
+      <c r="P22">
         <v>29841</v>
       </c>
-      <c r="O22">
+      <c r="Q22">
         <v>1239</v>
       </c>
-      <c r="P22">
+      <c r="R22">
         <v>9765</v>
       </c>
-      <c r="Q22">
+      <c r="S22">
         <v>721</v>
       </c>
-      <c r="R22">
+      <c r="T22">
         <v>373788</v>
       </c>
-      <c r="S22">
+      <c r="U22">
         <v>1904.754577366858</v>
       </c>
-      <c r="T22">
+      <c r="V22">
         <v>58208</v>
       </c>
-      <c r="U22">
+      <c r="W22">
         <v>1367.820894708075</v>
       </c>
-      <c r="V22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22">
+      <c r="X22">
+        <v>970</v>
+      </c>
+      <c r="Y22">
+        <v>200.8208156541547</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B23">
         <v>839013</v>
@@ -2088,42 +2364,54 @@
         <v>3772.551656372646</v>
       </c>
       <c r="L23">
+        <v>1385</v>
+      </c>
+      <c r="M23">
+        <v>308.7296552001444</v>
+      </c>
+      <c r="N23">
         <v>880085</v>
       </c>
-      <c r="M23">
+      <c r="O23">
         <v>759</v>
       </c>
-      <c r="N23">
+      <c r="P23">
         <v>8731</v>
       </c>
-      <c r="O23">
+      <c r="Q23">
         <v>934</v>
       </c>
-      <c r="P23">
+      <c r="R23">
         <v>17871</v>
       </c>
-      <c r="Q23">
+      <c r="S23">
         <v>1161</v>
       </c>
-      <c r="R23">
+      <c r="T23">
         <v>17186</v>
       </c>
-      <c r="S23">
+      <c r="U23">
         <v>1248.619237397855</v>
       </c>
-      <c r="T23">
+      <c r="V23">
         <v>835178</v>
       </c>
-      <c r="U23">
+      <c r="W23">
         <v>4511.288175233322</v>
       </c>
-      <c r="V23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22">
+      <c r="X23">
+        <v>1119</v>
+      </c>
+      <c r="Y23">
+        <v>318.4226750719866</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B24">
         <v>135562</v>
@@ -2156,42 +2444,54 @@
         <v>906.9873207493035</v>
       </c>
       <c r="L24">
+        <v>3507</v>
+      </c>
+      <c r="M24">
+        <v>408.8275920238261</v>
+      </c>
+      <c r="N24">
         <v>143252</v>
       </c>
-      <c r="M24">
+      <c r="O24">
         <v>315</v>
       </c>
-      <c r="N24">
+      <c r="P24">
         <v>8953</v>
       </c>
-      <c r="O24">
+      <c r="Q24">
         <v>712</v>
       </c>
-      <c r="P24">
+      <c r="R24">
         <v>9880</v>
       </c>
-      <c r="Q24">
+      <c r="S24">
         <v>663</v>
       </c>
-      <c r="R24">
+      <c r="T24">
         <v>99298</v>
       </c>
-      <c r="S24">
+      <c r="U24">
         <v>1337.700265380851</v>
       </c>
-      <c r="T24">
+      <c r="V24">
         <v>21914</v>
       </c>
-      <c r="U24">
+      <c r="W24">
         <v>880.8319930611059</v>
       </c>
-      <c r="V24" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22">
+      <c r="X24">
+        <v>3207</v>
+      </c>
+      <c r="Y24">
+        <v>309.7127701597078</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B25">
         <v>37881</v>
@@ -2224,42 +2524,54 @@
         <v>387.5293537269145</v>
       </c>
       <c r="L25">
+        <v>373</v>
+      </c>
+      <c r="M25">
+        <v>190.9057359012557</v>
+      </c>
+      <c r="N25">
         <v>38620</v>
       </c>
-      <c r="M25">
+      <c r="O25">
         <v>192</v>
       </c>
-      <c r="N25">
+      <c r="P25">
         <v>1524</v>
       </c>
-      <c r="O25">
+      <c r="Q25">
         <v>274</v>
       </c>
-      <c r="P25">
+      <c r="R25">
         <v>1410</v>
       </c>
-      <c r="Q25">
+      <c r="S25">
         <v>267</v>
       </c>
-      <c r="R25">
+      <c r="T25">
         <v>32809</v>
       </c>
-      <c r="S25">
+      <c r="U25">
         <v>585.4374432849337</v>
       </c>
-      <c r="T25">
+      <c r="V25">
         <v>2495</v>
       </c>
-      <c r="U25">
+      <c r="W25">
         <v>350.3626692443132</v>
       </c>
-      <c r="V25" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22">
+      <c r="X25">
+        <v>382</v>
+      </c>
+      <c r="Y25">
+        <v>133.9589489358587</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B26">
         <v>832357</v>
@@ -2292,42 +2604,54 @@
         <v>2721.410296151611</v>
       </c>
       <c r="L26">
+        <v>1443</v>
+      </c>
+      <c r="M26">
+        <v>258.549801779077</v>
+      </c>
+      <c r="N26">
         <v>859529</v>
       </c>
-      <c r="M26">
+      <c r="O26">
         <v>520</v>
       </c>
-      <c r="N26">
+      <c r="P26">
         <v>175505</v>
       </c>
-      <c r="O26">
+      <c r="Q26">
         <v>2363</v>
       </c>
-      <c r="P26">
+      <c r="R26">
         <v>91784</v>
       </c>
-      <c r="Q26">
+      <c r="S26">
         <v>2056</v>
       </c>
-      <c r="R26">
+      <c r="T26">
         <v>235529</v>
       </c>
-      <c r="S26">
+      <c r="U26">
         <v>2270.663339202886</v>
       </c>
-      <c r="T26">
+      <c r="V26">
         <v>355080</v>
       </c>
-      <c r="U26">
+      <c r="W26">
         <v>2517.458043344516</v>
       </c>
-      <c r="V26" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22">
+      <c r="X26">
+        <v>1631</v>
+      </c>
+      <c r="Y26">
+        <v>262.3661563540542</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B27">
         <v>175907</v>
@@ -2360,42 +2684,54 @@
         <v>873.6830088767894</v>
       </c>
       <c r="L27">
+        <v>682</v>
+      </c>
+      <c r="M27">
+        <v>175.025712396779</v>
+      </c>
+      <c r="N27">
         <v>180325</v>
       </c>
-      <c r="M27">
+      <c r="O27">
         <v>295</v>
       </c>
-      <c r="N27">
+      <c r="P27">
         <v>42077</v>
       </c>
-      <c r="O27">
+      <c r="Q27">
         <v>1469</v>
       </c>
-      <c r="P27">
+      <c r="R27">
         <v>6003</v>
       </c>
-      <c r="Q27">
+      <c r="S27">
         <v>628</v>
       </c>
-      <c r="R27">
+      <c r="T27">
         <v>107529</v>
       </c>
-      <c r="S27">
+      <c r="U27">
         <v>1707.673270857163</v>
       </c>
-      <c r="T27">
+      <c r="V27">
         <v>24273</v>
       </c>
-      <c r="U27">
+      <c r="W27">
         <v>941.8805656769864</v>
       </c>
-      <c r="V27" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22">
+      <c r="X27">
+        <v>443</v>
+      </c>
+      <c r="Y27">
+        <v>111.8033988749895</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B28">
         <v>102533</v>
@@ -2428,42 +2764,54 @@
         <v>836.5392997343281</v>
       </c>
       <c r="L28">
+        <v>1428</v>
+      </c>
+      <c r="M28">
+        <v>306.7409330363328</v>
+      </c>
+      <c r="N28">
         <v>106296</v>
       </c>
-      <c r="M28">
+      <c r="O28">
         <v>214</v>
       </c>
-      <c r="N28">
+      <c r="P28">
         <v>7284</v>
       </c>
-      <c r="O28">
+      <c r="Q28">
         <v>589</v>
       </c>
-      <c r="P28">
+      <c r="R28">
         <v>8430</v>
       </c>
-      <c r="Q28">
+      <c r="S28">
         <v>511</v>
       </c>
-      <c r="R28">
+      <c r="T28">
         <v>68732</v>
       </c>
-      <c r="S28">
+      <c r="U28">
         <v>950.0526301210897</v>
       </c>
-      <c r="T28">
+      <c r="V28">
         <v>20663</v>
       </c>
-      <c r="U28">
+      <c r="W28">
         <v>924.4122456999366</v>
       </c>
-      <c r="V28" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22">
+      <c r="X28">
+        <v>1187</v>
+      </c>
+      <c r="Y28">
+        <v>220.7826985975124</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B29">
         <v>564684</v>
@@ -2496,42 +2844,54 @@
         <v>1500.782129424521</v>
       </c>
       <c r="L29">
+        <v>5622</v>
+      </c>
+      <c r="M29">
+        <v>506.0355718721758</v>
+      </c>
+      <c r="N29">
         <v>575960</v>
       </c>
-      <c r="M29">
+      <c r="O29">
         <v>398</v>
       </c>
-      <c r="N29">
+      <c r="P29">
         <v>21634</v>
       </c>
-      <c r="O29">
+      <c r="Q29">
         <v>1269</v>
       </c>
-      <c r="P29">
+      <c r="R29">
         <v>12726</v>
       </c>
-      <c r="Q29">
+      <c r="S29">
         <v>786</v>
       </c>
-      <c r="R29">
+      <c r="T29">
         <v>486036</v>
       </c>
-      <c r="S29">
+      <c r="U29">
         <v>2212.850876132416</v>
       </c>
-      <c r="T29">
+      <c r="V29">
         <v>50348</v>
       </c>
-      <c r="U29">
+      <c r="W29">
         <v>1472.105295147056</v>
       </c>
-      <c r="V29" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22">
+      <c r="X29">
+        <v>5216</v>
+      </c>
+      <c r="Y29">
+        <v>568.3273704477025</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B30">
         <v>48675</v>
@@ -2564,42 +2924,54 @@
         <v>441.9162816642989</v>
       </c>
       <c r="L30">
+        <v>5357</v>
+      </c>
+      <c r="M30">
+        <v>431.8854014666391</v>
+      </c>
+      <c r="N30">
         <v>50715</v>
       </c>
-      <c r="M30">
+      <c r="O30">
         <v>172</v>
       </c>
-      <c r="N30">
+      <c r="P30">
         <v>2729</v>
       </c>
-      <c r="O30">
+      <c r="Q30">
         <v>387</v>
       </c>
-      <c r="P30">
+      <c r="R30">
         <v>2148</v>
       </c>
-      <c r="Q30">
+      <c r="S30">
         <v>302</v>
       </c>
-      <c r="R30">
+      <c r="T30">
         <v>37688</v>
       </c>
-      <c r="S30">
+      <c r="U30">
         <v>706.1366723234249</v>
       </c>
-      <c r="T30">
+      <c r="V30">
         <v>3506</v>
       </c>
-      <c r="U30">
+      <c r="W30">
         <v>446.7404167970478</v>
       </c>
-      <c r="V30" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22">
+      <c r="X30">
+        <v>4644</v>
+      </c>
+      <c r="Y30">
+        <v>454.8626166217663</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26">
       <c r="A31" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B31">
         <v>83007</v>
@@ -2632,42 +3004,54 @@
         <v>644.9744180973382</v>
       </c>
       <c r="L31">
+        <v>5036</v>
+      </c>
+      <c r="M31">
+        <v>429.0104893822527</v>
+      </c>
+      <c r="N31">
         <v>85139</v>
       </c>
-      <c r="M31">
+      <c r="O31">
         <v>271</v>
       </c>
-      <c r="N31">
+      <c r="P31">
         <v>5729</v>
       </c>
-      <c r="O31">
+      <c r="Q31">
         <v>568</v>
       </c>
-      <c r="P31">
+      <c r="R31">
         <v>4409</v>
       </c>
-      <c r="Q31">
+      <c r="S31">
         <v>420</v>
       </c>
-      <c r="R31">
+      <c r="T31">
         <v>61574</v>
       </c>
-      <c r="S31">
+      <c r="U31">
         <v>984.9350232375738</v>
       </c>
-      <c r="T31">
+      <c r="V31">
         <v>7948</v>
       </c>
-      <c r="U31">
+      <c r="W31">
         <v>604.5858086326539</v>
       </c>
-      <c r="V31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22">
+      <c r="X31">
+        <v>5479</v>
+      </c>
+      <c r="Y31">
+        <v>520.3892773683947</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26">
       <c r="A32" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B32">
         <v>368498</v>
@@ -2700,42 +3084,54 @@
         <v>1914.664200323388</v>
       </c>
       <c r="L32">
+        <v>486</v>
+      </c>
+      <c r="M32">
+        <v>154.5477272560163</v>
+      </c>
+      <c r="N32">
         <v>374923</v>
       </c>
-      <c r="M32">
+      <c r="O32">
         <v>463</v>
       </c>
-      <c r="N32">
+      <c r="P32">
         <v>31680</v>
       </c>
-      <c r="O32">
+      <c r="Q32">
         <v>1351</v>
       </c>
-      <c r="P32">
+      <c r="R32">
         <v>30776</v>
       </c>
-      <c r="Q32">
+      <c r="S32">
         <v>1109</v>
       </c>
-      <c r="R32">
+      <c r="T32">
         <v>186396</v>
       </c>
-      <c r="S32">
+      <c r="U32">
         <v>1803.210747527864</v>
       </c>
-      <c r="T32">
+      <c r="V32">
         <v>125380</v>
       </c>
-      <c r="U32">
+      <c r="W32">
         <v>2087.647719324312</v>
       </c>
-      <c r="V32" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21">
+      <c r="X32">
+        <v>691</v>
+      </c>
+      <c r="Y32">
+        <v>175.8408371226661</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B33">
         <v>804248</v>
@@ -2768,39 +3164,51 @@
         <v>2381.755235115481</v>
       </c>
       <c r="L33">
+        <v>4183</v>
+      </c>
+      <c r="M33">
+        <v>425.8931790954159</v>
+      </c>
+      <c r="N33">
         <v>827870</v>
       </c>
-      <c r="M33">
+      <c r="O33">
         <v>572.9537503149796</v>
       </c>
-      <c r="N33">
+      <c r="P33">
         <v>73215</v>
       </c>
-      <c r="O33">
+      <c r="Q33">
         <v>1863.897797627327</v>
       </c>
-      <c r="P33">
+      <c r="R33">
         <v>74333</v>
       </c>
-      <c r="Q33">
+      <c r="S33">
         <v>1882.597407838436</v>
       </c>
-      <c r="R33">
+      <c r="T33">
         <v>523048</v>
       </c>
-      <c r="S33">
+      <c r="U33">
         <v>2824.716268937466</v>
       </c>
-      <c r="T33">
+      <c r="V33">
         <v>153427</v>
       </c>
-      <c r="U33">
+      <c r="W33">
         <v>2583.297698678958</v>
       </c>
-    </row>
-    <row r="34" spans="1:21">
+      <c r="X33">
+        <v>3847</v>
+      </c>
+      <c r="Y33">
+        <v>369.2465301123357</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25">
       <c r="A34" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B34">
         <v>1904663</v>
@@ -2833,39 +3241,51 @@
         <v>4073.523413459164</v>
       </c>
       <c r="L34">
+        <v>6930</v>
+      </c>
+      <c r="M34">
+        <v>546.0558579486168</v>
+      </c>
+      <c r="N34">
         <v>1958160</v>
       </c>
-      <c r="M34">
+      <c r="O34">
         <v>917.2006323591365</v>
       </c>
-      <c r="N34">
+      <c r="P34">
         <v>268934</v>
       </c>
-      <c r="O34">
+      <c r="Q34">
         <v>3453.685567621928</v>
       </c>
-      <c r="P34">
+      <c r="R34">
         <v>173867</v>
       </c>
-      <c r="Q34">
+      <c r="S34">
         <v>2747.840424769968</v>
       </c>
-      <c r="R34">
+      <c r="T34">
         <v>999484</v>
       </c>
-      <c r="S34">
+      <c r="U34">
         <v>4359.880273585503</v>
       </c>
-      <c r="T34">
+      <c r="V34">
         <v>510016</v>
       </c>
-      <c r="U34">
+      <c r="W34">
         <v>4499.121247532678</v>
       </c>
-    </row>
-    <row r="35" spans="1:21">
+      <c r="X34">
+        <v>5859</v>
+      </c>
+      <c r="Y34">
+        <v>483.1211028303359</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25">
       <c r="A35" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B35">
         <v>830297</v>
@@ -2898,39 +3318,51 @@
         <v>2114.16910392712</v>
       </c>
       <c r="L35">
+        <v>12010</v>
+      </c>
+      <c r="M35">
+        <v>613.9291490066261</v>
+      </c>
+      <c r="N35">
         <v>847871</v>
       </c>
-      <c r="M35">
+      <c r="O35">
         <v>602.3993691895768</v>
       </c>
-      <c r="N35">
+      <c r="P35">
         <v>27903</v>
       </c>
-      <c r="O35">
+      <c r="Q35">
         <v>1108.846247231779</v>
       </c>
-      <c r="P35">
+      <c r="R35">
         <v>26220</v>
       </c>
-      <c r="Q35">
+      <c r="S35">
         <v>1189.229162104596</v>
       </c>
-      <c r="R35">
+      <c r="T35">
         <v>667972</v>
       </c>
-      <c r="S35">
+      <c r="U35">
         <v>2855.290703238464</v>
       </c>
-      <c r="T35">
+      <c r="V35">
         <v>114096</v>
       </c>
-      <c r="U35">
+      <c r="W35">
         <v>2293.068468232033</v>
       </c>
-    </row>
-    <row r="36" spans="1:21">
+      <c r="X35">
+        <v>11680</v>
+      </c>
+      <c r="Y35">
+        <v>725.7120641135849</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25">
       <c r="A36" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B36">
         <v>3343424</v>
@@ -2963,39 +3395,51 @@
         <v>6371.910310103242</v>
       </c>
       <c r="L36">
+        <v>5976</v>
+      </c>
+      <c r="M36">
+        <v>565.0486704700755</v>
+      </c>
+      <c r="N36">
         <v>3494228</v>
       </c>
-      <c r="M36">
+      <c r="O36">
         <v>1377.686466508255</v>
       </c>
-      <c r="N36">
+      <c r="P36">
         <v>456977</v>
       </c>
-      <c r="O36">
+      <c r="Q36">
         <v>4214.758118801125</v>
       </c>
-      <c r="P36">
+      <c r="R36">
         <v>329158</v>
       </c>
-      <c r="Q36">
+      <c r="S36">
         <v>3825.131893150875</v>
       </c>
-      <c r="R36">
+      <c r="T36">
         <v>561829</v>
       </c>
-      <c r="S36">
+      <c r="U36">
         <v>4048.126850779258</v>
       </c>
-      <c r="T36">
+      <c r="V36">
         <v>2139849</v>
       </c>
-      <c r="U36">
+      <c r="W36">
         <v>6890.13802474232</v>
       </c>
-    </row>
-    <row r="37" spans="1:21">
+      <c r="X36">
+        <v>6415</v>
+      </c>
+      <c r="Y36">
+        <v>593.6792063058972</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25">
       <c r="A37" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B37">
         <v>384190</v>
@@ -3028,39 +3472,51 @@
         <v>1494.832766566214</v>
       </c>
       <c r="L37">
+        <v>18728</v>
+      </c>
+      <c r="M37">
+        <v>881.0334840401924</v>
+      </c>
+      <c r="N37">
         <v>399895</v>
       </c>
-      <c r="M37">
+      <c r="O37">
         <v>587.4810635246042</v>
       </c>
-      <c r="N37">
+      <c r="P37">
         <v>25050</v>
       </c>
-      <c r="O37">
+      <c r="Q37">
         <v>1175.284220944023</v>
       </c>
-      <c r="P37">
+      <c r="R37">
         <v>24755</v>
       </c>
-      <c r="Q37">
+      <c r="S37">
         <v>985.0593890725573</v>
       </c>
-      <c r="R37">
+      <c r="T37">
         <v>282377</v>
       </c>
-      <c r="S37">
+      <c r="U37">
         <v>2076.491752933298</v>
       </c>
-      <c r="T37">
+      <c r="V37">
         <v>50203</v>
       </c>
-      <c r="U37">
+      <c r="W37">
         <v>1440.440904723273</v>
       </c>
-    </row>
-    <row r="38" spans="1:21">
+      <c r="X37">
+        <v>17510</v>
+      </c>
+      <c r="Y37">
+        <v>843.7392962284025</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25">
       <c r="A38" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B38">
         <v>1031405</v>
@@ -3093,39 +3549,51 @@
         <v>2015.736093837683</v>
       </c>
       <c r="L38">
+        <v>6497</v>
+      </c>
+      <c r="M38">
+        <v>546.1510779994854</v>
+      </c>
+      <c r="N38">
         <v>1048532</v>
       </c>
-      <c r="M38">
+      <c r="O38">
         <v>538.0037174592755</v>
       </c>
-      <c r="N38">
+      <c r="P38">
         <v>51475</v>
       </c>
-      <c r="O38">
+      <c r="Q38">
         <v>1773.550675904131</v>
       </c>
-      <c r="P38">
+      <c r="R38">
         <v>22491</v>
       </c>
-      <c r="Q38">
+      <c r="S38">
         <v>1066.600675041977</v>
       </c>
-      <c r="R38">
+      <c r="T38">
         <v>859824</v>
       </c>
-      <c r="S38">
+      <c r="U38">
         <v>2919.725843294195</v>
       </c>
-      <c r="T38">
+      <c r="V38">
         <v>108556</v>
       </c>
-      <c r="U38">
+      <c r="W38">
         <v>2009.484511012713</v>
       </c>
-    </row>
-    <row r="39" spans="1:21">
+      <c r="X38">
+        <v>6186</v>
+      </c>
+      <c r="Y38">
+        <v>602.7644647787394</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25">
       <c r="A39" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B39">
         <v>508912</v>
@@ -3158,34 +3626,46 @@
         <v>2125.06846948516</v>
       </c>
       <c r="L39">
+        <v>2287</v>
+      </c>
+      <c r="M39">
+        <v>392.963102593615</v>
+      </c>
+      <c r="N39">
         <v>519839</v>
       </c>
-      <c r="M39">
+      <c r="O39">
         <v>545.0036697124158</v>
       </c>
-      <c r="N39">
+      <c r="P39">
         <v>40488</v>
       </c>
-      <c r="O39">
+      <c r="Q39">
         <v>1499.065709033463</v>
       </c>
-      <c r="P39">
+      <c r="R39">
         <v>40616</v>
       </c>
-      <c r="Q39">
+      <c r="S39">
         <v>1249.916397204229</v>
       </c>
-      <c r="R39">
+      <c r="T39">
         <v>287937</v>
       </c>
-      <c r="S39">
+      <c r="U39">
         <v>2120.590955370696</v>
       </c>
-      <c r="T39">
+      <c r="V39">
         <v>148538</v>
       </c>
-      <c r="U39">
+      <c r="W39">
         <v>2309.884196231491</v>
+      </c>
+      <c r="X39">
+        <v>2260</v>
+      </c>
+      <c r="Y39">
+        <v>312.4259912363246</v>
       </c>
     </row>
   </sheetData>
